--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3817237.502554142</v>
+        <v>3814985.422842935</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7391279.575925121</v>
+        <v>7391279.57592512</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>137.6239248584655</v>
+        <v>143.0659977617352</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554005</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>61.05801487789201</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>41.05669261393864</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846149</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>177.3663548725807</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.99401811822491</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.0516891092285</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>41.88765656161105</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.42256356228502</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.155902292902968</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881273</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.6356839950563</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>178.2892930985867</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>54.32649042089665</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881301</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>140.575894358866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877865</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.8566599330997</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>161.0175085755505</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>116.9323399797388</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>4.444394634328834</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>112.7304175246786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833735</v>
       </c>
       <c r="F43" t="n">
-        <v>28.23631843387954</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>211.4959438384091</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.13013587303</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
         <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2285.729975937151</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>2285.729975937151</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>879.4155991374388</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>879.4155991374388</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>657.6489837069648</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>657.6489837069648</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>657.6489837069648</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>657.6489837069648</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X4" t="n">
-        <v>657.6489837069648</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.6489837069648</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.660964416652</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1049.69844747624</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>691.4327488694898</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>305.6444962712456</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>298.6989955220421</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>287.6669494074427</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9555841418255</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9555841418255</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9555841418255</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9555841418255</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9555841418255</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>417.6040489720652</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>417.6040489720652</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1243.280836875046</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>874.3183199346347</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3283.295057405523</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3077.317309789745</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3077.317309789745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2746.254422446174</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2393.48576717606</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2020.02000891498</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1629.880676939168</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.3050295353381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>168.3050295353381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>168.3050295353381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>168.3050295353381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025384</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025384</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V10" t="n">
-        <v>639.3706644025384</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W10" t="n">
-        <v>349.9534943655778</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>349.9534943655778</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>349.9534943655778</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075826</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>221.3431781811715</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2016.97235043849</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1727.897123782688</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.212635576801</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.79546553984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5516,10 +5516,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952728</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>148.6919058973624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>148.6919058973624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,40 +5747,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>550.9217088032285</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>403.0086152208354</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,7 +6461,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>815.6411092982063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,7 +6698,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>961.4446166151475</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>792.5084336872407</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>642.3917942749049</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>494.4787006925118</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>347.5887531946014</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>180.3926539094813</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,22 +7017,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7257,13 +7257,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,31 +7427,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773693</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>532.5350811160199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>382.4184417036842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1983.430278984124</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1694.355052328322</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1439.670564122435</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1150.253394085474</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>922.2638431874569</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>701.4712640439268</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.9489693570385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294992</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.11615722870158</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>85.96822242532724</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>4.845153664065208</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.9753202488376</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>125.5054897610405</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>31.68313303847354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823193</v>
       </c>
       <c r="F43" t="n">
-        <v>117.1847295890517</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.909506488879117</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200502</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200502</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176758</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977555</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.880856267955348e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551174</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687961</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753625</v>
+        <v>-729759.7047753626</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522303</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522306</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="E6" t="n">
-        <v>344996.3030596129</v>
+        <v>344961.565134178</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.7648669688</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="G6" t="n">
-        <v>670408.7648669693</v>
+        <v>670374.0269415338</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.7648669692</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="I6" t="n">
-        <v>670408.7648669687</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="J6" t="n">
-        <v>452877.5624696912</v>
+        <v>452842.824544256</v>
       </c>
       <c r="K6" t="n">
-        <v>670408.764866969</v>
+        <v>670374.026941533</v>
       </c>
       <c r="L6" t="n">
-        <v>670408.7648669687</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="M6" t="n">
-        <v>585353.7369314573</v>
+        <v>585318.9990060214</v>
       </c>
       <c r="N6" t="n">
-        <v>670408.7648669686</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="O6" t="n">
-        <v>670408.7648669691</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="P6" t="n">
-        <v>670408.7648669688</v>
+        <v>670374.0269415332</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.196702507203993e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>232.1071758200036</v>
+        <v>226.6651029167338</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>87.55745814032035</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87546005610869</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.819342382546</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2414095147397</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>143.0317901408033</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>7.160149096384373</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>67.30010522656482</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9984844606462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>284.0559359127099</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28144,19 +28144,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.285915741704982e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28570,10 +28570,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.443789532373785e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
     </row>
     <row r="44">
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>255.6522884173734</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33181,10 +33181,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33418,10 +33418,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>650.5350891770659</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>485.1127032082907</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,13 +34214,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>272.756932936465</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>128.8146617507067</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>169.4270660337085</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36829,10 +36829,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37066,10 +37066,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>519.1933770937326</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>342.5164587638463</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>134.2025531565909</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
